--- a/biology/Botanique/Haricots_rouges_à_la_vigneronne/Haricots_rouges_à_la_vigneronne.xlsx
+++ b/biology/Botanique/Haricots_rouges_à_la_vigneronne/Haricots_rouges_à_la_vigneronne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haricots_rouges_%C3%A0_la_vigneronne</t>
+          <t>Haricots_rouges_à_la_vigneronne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les haricots rouges à la vigneronne sont un mets des terroirs viticoles français, à base de haricots rouges cuisinés avec du vin rouge et du lard.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haricots_rouges_%C3%A0_la_vigneronne</t>
+          <t>Haricots_rouges_à_la_vigneronne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant la découverte de l'Amérique, l'Europe connaissait la dolique mongette dont le nom grec était Phaseolus. Le haricot lui doit son nom régional de « mongette », ou « mogette », et son nom familier de « fayot[1] ». C'est Catherine de Médicis qui l'a introduit en France à l'occasion de son mariage avec le roi Henri II, en 1533[2]. Le haricot rouge se récoltant à partir du mois d'août[3], son utilisation en cuisine correspondait à la période des vendanges et à la nécessité d'utiliser le reliquat du vin de l'année précédente pour faire place dans les cuves au vin nouveau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la découverte de l'Amérique, l'Europe connaissait la dolique mongette dont le nom grec était Phaseolus. Le haricot lui doit son nom régional de « mongette », ou « mogette », et son nom familier de « fayot ». C'est Catherine de Médicis qui l'a introduit en France à l'occasion de son mariage avec le roi Henri II, en 1533. Le haricot rouge se récoltant à partir du mois d'août, son utilisation en cuisine correspondait à la période des vendanges et à la nécessité d'utiliser le reliquat du vin de l'année précédente pour faire place dans les cuves au vin nouveau.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haricots_rouges_%C3%A0_la_vigneronne</t>
+          <t>Haricots_rouges_à_la_vigneronne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets consiste à faire bouillir des haricots de l'année avec du vin rouge, un bouquet garni, un oignon émincé, des gousses d'ail et du lard de poitrine maigre. Les haricots sont ensuite mis à sauter avec le lard puis servis avec du persil haché[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets consiste à faire bouillir des haricots de l'année avec du vin rouge, un bouquet garni, un oignon émincé, des gousses d'ail et du lard de poitrine maigre. Les haricots sont ensuite mis à sauter avec le lard puis servis avec du persil haché.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Haricots_rouges_%C3%A0_la_vigneronne</t>
+          <t>Haricots_rouges_à_la_vigneronne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originellement, c'est un plat des ménages paysans faisant de la viticulture et il s'accompagne du vin servant à l'élaborer. Un vin de pays peut être employé. Il peut aussi s'accorder parfaitement avec un médoc, un chinon, un bourgueil, un luberon ou un beaujolais nouveau[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originellement, c'est un plat des ménages paysans faisant de la viticulture et il s'accompagne du vin servant à l'élaborer. Un vin de pays peut être employé. Il peut aussi s'accorder parfaitement avec un médoc, un chinon, un bourgueil, un luberon ou un beaujolais nouveau.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Haricots_rouges_%C3%A0_la_vigneronne</t>
+          <t>Haricots_rouges_à_la_vigneronne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre national de ressources textuelles et lexicales s'est servi de cette recette donnée par Raymond Dumay pour illustrer en gastronomie le terme « vigneronne », ou « à la vigneronne[5] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre national de ressources textuelles et lexicales s'est servi de cette recette donnée par Raymond Dumay pour illustrer en gastronomie le terme « vigneronne », ou « à la vigneronne ».
 </t>
         </is>
       </c>
